--- a/_resource/excel/1000-框架-渠道配置.xlsx
+++ b/_resource/excel/1000-框架-渠道配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="channel" sheetId="2" r:id="rId1"/>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,23 +136,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,9 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,82 +240,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -305,25 +305,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,31 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,121 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,16 +517,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,32 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,157 +587,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,28 +780,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,7 +1215,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1247,17 +1232,14 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1269,13 +1251,13 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1298,13 +1280,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -1330,28 +1315,28 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="2:6">
       <c r="B5" s="4">
@@ -1360,7 +1345,8 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="4">
@@ -1377,19 +1363,19 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1403,19 +1389,19 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="4">
         <v>982550</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
